--- a/docs/Course in political economy,renmin university summer 2017/Temporal Value.xlsx
+++ b/docs/Course in political economy,renmin university summer 2017/Temporal Value.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afree\Documents\Our Works\Catalogued Works\2014-2017\2017m Ren Min University Course\Theory of Value\Course Materials\Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afree\eclipse-workspace\capitalism-9.0\docs\Course in political economy,renmin university summer 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22710" windowHeight="10314"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22710" windowHeight="10314" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="9" r:id="rId1"/>
     <sheet name="Temporal Value" sheetId="7" r:id="rId2"/>
-    <sheet name="Bortkiewicz" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alan Freeman</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,156 +59,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Alan Freeman</author>
-  </authors>
-  <commentList>
-    <comment ref="F10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">S = output - V
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Capital = C+V</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>r = S/(C+V)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Profit = r * Invested Capital</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Transfer = profit -S</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Price of production = C+V+Profit
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Output/Input (used to calculate the values of inputs in the next period)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Equal to  the value of constant capital in this department at the start of the previous period, times the relative price of the output of Department I at the end of the last period</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Equal to  the value of the wage in this department at the start of the previous period, times the relative price of the output of Department II at the end of the last period</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Profit Rate</t>
   </si>
@@ -326,114 +177,6 @@
   </si>
   <si>
     <t>Time-&gt;</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>profit rate</t>
-  </si>
-  <si>
-    <t>Invested capital</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>L(=V+S)</t>
-  </si>
-  <si>
-    <t>Period 1</t>
-  </si>
-  <si>
-    <t>Period 2</t>
-  </si>
-  <si>
-    <t>Price of production</t>
-  </si>
-  <si>
-    <t>Relative price</t>
-  </si>
-  <si>
-    <t>Transfer</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t>E3=B6 (constant capital consumed = output of department 1)</t>
-  </si>
-  <si>
-    <t>E4=C6 (wages = output of department II)</t>
-  </si>
-  <si>
-    <t>E5=D6  (capitalist consumption = output of department III)</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>(relative price of wage goods)</t>
-  </si>
-  <si>
-    <t>Period 3</t>
-  </si>
-  <si>
-    <t>Prices of production are completely consistent with Marx</t>
-  </si>
-  <si>
-    <t>But the price at the end is different from the price at the beginning</t>
-  </si>
-  <si>
-    <t>(relative price of constant capital)</t>
-  </si>
-  <si>
-    <t>System cannot reproduce! (capital costs more than output of capital goods)</t>
-  </si>
-  <si>
-    <t>But this was never required by Marx's transformation procedure</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>Calculation of price of production</t>
-  </si>
-  <si>
-    <t>Conditions for reproduction</t>
-  </si>
-  <si>
-    <t>Note: prices are converging to simultaneous prices</t>
-  </si>
-  <si>
-    <t>BUT: value is defined within the system</t>
-  </si>
-  <si>
-    <t>The price of production of each output serves as the value of the corresponding input in the next period</t>
-  </si>
-  <si>
-    <t>Profit rate</t>
-  </si>
-  <si>
-    <t>A temporal single system solution to the  system proposed by Bortkiewicz</t>
   </si>
   <si>
     <t>Author</t>
@@ -484,14 +227,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,35 +270,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -564,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,32 +297,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -616,104 +306,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -722,99 +321,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2129,10 +1638,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2144,81 +1653,81 @@
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>78</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="62">
+        <v>43</v>
+      </c>
+      <c r="D6" s="10">
         <v>42923</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>86</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="61" t="s">
-        <v>81</v>
+      <c r="C11" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="106" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -2665,942 +2174,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="16.26171875" customWidth="1"/>
-    <col min="7" max="7" width="2.62890625" customWidth="1"/>
-    <col min="8" max="8" width="18.41796875" customWidth="1"/>
-    <col min="9" max="9" width="12.578125" customWidth="1"/>
-    <col min="10" max="11" width="12.62890625" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="14" max="14" width="26.9453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="22">
-        <v>225</v>
-      </c>
-      <c r="C4" s="10">
-        <v>90</v>
-      </c>
-      <c r="D4" s="10">
-        <v>60</v>
-      </c>
-      <c r="E4" s="28">
-        <f>B4+C4+D4</f>
-        <v>375</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="22">
-        <v>100</v>
-      </c>
-      <c r="C5" s="10">
-        <v>120</v>
-      </c>
-      <c r="D5" s="10">
-        <v>80</v>
-      </c>
-      <c r="E5" s="29">
-        <f t="shared" ref="E5:E7" si="0">B5+C5+D5</f>
-        <v>300</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="22">
-        <v>50</v>
-      </c>
-      <c r="C6" s="10">
-        <v>90</v>
-      </c>
-      <c r="D6" s="10">
-        <v>60</v>
-      </c>
-      <c r="E6" s="30">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="40">
-        <f>SUM(B4:B6)</f>
-        <v>375</v>
-      </c>
-      <c r="C7" s="41">
-        <f>SUM(C4:C6)</f>
-        <v>300</v>
-      </c>
-      <c r="D7" s="42">
-        <f>SUM(D4:D6)</f>
-        <v>200</v>
-      </c>
-      <c r="E7" s="43">
-        <f t="shared" si="0"/>
-        <v>875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="H9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="22">
-        <v>225</v>
-      </c>
-      <c r="C11" s="10">
-        <f>C4+D4</f>
-        <v>150</v>
-      </c>
-      <c r="D11" s="11">
-        <f>B11+C11</f>
-        <v>375</v>
-      </c>
-      <c r="E11" s="10">
-        <f>C4</f>
-        <v>90</v>
-      </c>
-      <c r="F11" s="23">
-        <f>C11-E11</f>
-        <v>60</v>
-      </c>
-      <c r="H11" s="22">
-        <f>B11+E11</f>
-        <v>315</v>
-      </c>
-      <c r="I11" s="14">
-        <f>F11/H11</f>
-        <v>0.19047619047619047</v>
-      </c>
-      <c r="J11" s="14">
-        <f>H11*I14</f>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="K11" s="14">
-        <f>J11-F11</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="L11" s="15">
-        <f>B11+E11+J11</f>
-        <v>408.33333333333331</v>
-      </c>
-      <c r="M11" s="25">
-        <f>L11/D11</f>
-        <v>1.0888888888888888</v>
-      </c>
-      <c r="N11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="22">
-        <v>100</v>
-      </c>
-      <c r="C12" s="10">
-        <f>C5+D5</f>
-        <v>200</v>
-      </c>
-      <c r="D12" s="12">
-        <f t="shared" ref="D12:D13" si="1">B12+C12</f>
-        <v>300</v>
-      </c>
-      <c r="E12" s="10">
-        <f>C5</f>
-        <v>120</v>
-      </c>
-      <c r="F12" s="23">
-        <f t="shared" ref="F12:F13" si="2">C12-E12</f>
-        <v>80</v>
-      </c>
-      <c r="H12" s="22">
-        <f t="shared" ref="H12:H13" si="3">B12+E12</f>
-        <v>220</v>
-      </c>
-      <c r="I12" s="14">
-        <f>F12/H12</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="J12" s="14">
-        <f>H12*I14</f>
-        <v>65.185185185185176</v>
-      </c>
-      <c r="K12" s="14">
-        <f t="shared" ref="K12:K13" si="4">J12-F12</f>
-        <v>-14.814814814814824</v>
-      </c>
-      <c r="L12" s="15">
-        <f t="shared" ref="L12:L13" si="5">B12+E12+J12</f>
-        <v>285.18518518518516</v>
-      </c>
-      <c r="M12" s="25">
-        <f t="shared" ref="M12:M13" si="6">L12/D12</f>
-        <v>0.95061728395061718</v>
-      </c>
-      <c r="N12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="22">
-        <v>50</v>
-      </c>
-      <c r="C13" s="10">
-        <f>C6+D6</f>
-        <v>150</v>
-      </c>
-      <c r="D13" s="13">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="E13" s="10">
-        <f>C6</f>
-        <v>90</v>
-      </c>
-      <c r="F13" s="23">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H13" s="22">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="I13" s="14">
-        <f>F13/H13</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="J13" s="14">
-        <f>H13*I14</f>
-        <v>41.481481481481481</v>
-      </c>
-      <c r="K13" s="14">
-        <f t="shared" si="4"/>
-        <v>-18.518518518518519</v>
-      </c>
-      <c r="L13" s="15">
-        <f t="shared" si="5"/>
-        <v>181.48148148148147</v>
-      </c>
-      <c r="M13" s="26">
-        <f t="shared" si="6"/>
-        <v>0.90740740740740733</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="36">
-        <f>SUM(B11:B13)</f>
-        <v>375</v>
-      </c>
-      <c r="C14" s="37">
-        <f t="shared" ref="C14:L14" si="7">SUM(C11:C13)</f>
-        <v>500</v>
-      </c>
-      <c r="D14" s="37">
-        <f t="shared" si="7"/>
-        <v>875</v>
-      </c>
-      <c r="E14" s="38">
-        <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="F14" s="39">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="H14" s="44">
-        <f t="shared" si="7"/>
-        <v>675</v>
-      </c>
-      <c r="I14" s="45">
-        <f>F14/H14</f>
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="J14" s="37">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="K14" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="37">
-        <f t="shared" si="7"/>
-        <v>875</v>
-      </c>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="M15" s="48"/>
-    </row>
-    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="53" t="str">
-        <f>C10</f>
-        <v>L(=V+S)</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="17">
-        <f>B11*M11</f>
-        <v>244.99999999999997</v>
-      </c>
-      <c r="C17" s="10">
-        <f>C11</f>
-        <v>150</v>
-      </c>
-      <c r="D17" s="11">
-        <f>B17+C17</f>
-        <v>395</v>
-      </c>
-      <c r="E17" s="15">
-        <f>E11*M12</f>
-        <v>85.555555555555543</v>
-      </c>
-      <c r="F17" s="18">
-        <f>C17-E17</f>
-        <v>64.444444444444457</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="17">
-        <f>B17+E17</f>
-        <v>330.55555555555554</v>
-      </c>
-      <c r="I17" s="14">
-        <f>F17/H17</f>
-        <v>0.19495798319327737</v>
-      </c>
-      <c r="J17" s="14">
-        <f>H17*I20</f>
-        <v>102.38836967808932</v>
-      </c>
-      <c r="K17" s="14">
-        <f>J17-F17</f>
-        <v>37.943925233644862</v>
-      </c>
-      <c r="L17" s="14">
-        <f>B17+E17+J17</f>
-        <v>432.94392523364485</v>
-      </c>
-      <c r="M17" s="18">
-        <f>L17/D17</f>
-        <v>1.0960605702117592</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="17">
-        <f>B12*M11</f>
-        <v>108.88888888888889</v>
-      </c>
-      <c r="C18" s="10">
-        <f>C12</f>
-        <v>200</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" ref="D18:D19" si="8">B18+C18</f>
-        <v>308.88888888888891</v>
-      </c>
-      <c r="E18" s="15">
-        <f>E12*M12</f>
-        <v>114.07407407407406</v>
-      </c>
-      <c r="F18" s="18">
-        <f t="shared" ref="F18:F19" si="9">C18-E18</f>
-        <v>85.925925925925938</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="17">
-        <f t="shared" ref="H18:H19" si="10">B18+E18</f>
-        <v>222.96296296296293</v>
-      </c>
-      <c r="I18" s="14">
-        <f>F18/H18</f>
-        <v>0.38538205980066453</v>
-      </c>
-      <c r="J18" s="14">
-        <f>H18*I20</f>
-        <v>69.0619591554171</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" ref="K18:K19" si="11">J18-F18</f>
-        <v>-16.863966770508839</v>
-      </c>
-      <c r="L18" s="14">
-        <f t="shared" ref="L18:L19" si="12">B18+E18+J18</f>
-        <v>292.02492211838</v>
-      </c>
-      <c r="M18" s="18">
-        <f t="shared" ref="M18:M19" si="13">L18/D18</f>
-        <v>0.94540442412425174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="17">
-        <f>B13*M11</f>
-        <v>54.444444444444443</v>
-      </c>
-      <c r="C19" s="10">
-        <f>C13</f>
-        <v>150</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" si="8"/>
-        <v>204.44444444444446</v>
-      </c>
-      <c r="E19" s="15">
-        <f>E13*M12</f>
-        <v>85.555555555555543</v>
-      </c>
-      <c r="F19" s="18">
-        <f t="shared" si="9"/>
-        <v>64.444444444444457</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="17">
-        <f t="shared" si="10"/>
-        <v>140</v>
-      </c>
-      <c r="I19" s="14">
-        <f>F19/H19</f>
-        <v>0.4603174603174604</v>
-      </c>
-      <c r="J19" s="14">
-        <f>H19*I20</f>
-        <v>43.36448598130842</v>
-      </c>
-      <c r="K19" s="14">
-        <f t="shared" si="11"/>
-        <v>-21.079958463136037</v>
-      </c>
-      <c r="L19" s="14">
-        <f t="shared" si="12"/>
-        <v>183.36448598130841</v>
-      </c>
-      <c r="M19" s="18">
-        <f t="shared" si="13"/>
-        <v>0.89689150751726932</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="36">
-        <f>SUM(B17:B19)</f>
-        <v>408.33333333333331</v>
-      </c>
-      <c r="C20" s="45">
-        <f t="shared" ref="C20:E20" si="14">SUM(C17:C19)</f>
-        <v>500</v>
-      </c>
-      <c r="D20" s="45">
-        <f t="shared" si="14"/>
-        <v>908.33333333333337</v>
-      </c>
-      <c r="E20" s="38">
-        <f t="shared" si="14"/>
-        <v>285.18518518518516</v>
-      </c>
-      <c r="F20" s="39">
-        <f t="shared" ref="F20" si="15">SUM(F17:F19)</f>
-        <v>214.81481481481484</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="46">
-        <f t="shared" ref="H20" si="16">SUM(H17:H19)</f>
-        <v>693.51851851851848</v>
-      </c>
-      <c r="I20" s="45">
-        <f>F20/H20</f>
-        <v>0.30974632843791727</v>
-      </c>
-      <c r="J20" s="45">
-        <f t="shared" ref="J20" si="17">SUM(J17:J19)</f>
-        <v>214.81481481481484</v>
-      </c>
-      <c r="K20" s="45">
-        <f t="shared" ref="K20" si="18">SUM(K17:K19)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="45">
-        <f t="shared" ref="L20" si="19">SUM(L17:L19)</f>
-        <v>908.33333333333326</v>
-      </c>
-      <c r="M20" s="47"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H22" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H23" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H24" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H25" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M26" s="24"/>
-    </row>
-    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="53" t="str">
-        <f>C16</f>
-        <v>L(=V+S)</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="17">
-        <f>B17*M17</f>
-        <v>268.53483970188097</v>
-      </c>
-      <c r="C28" s="10">
-        <f>C17</f>
-        <v>150</v>
-      </c>
-      <c r="D28" s="11">
-        <f>B28+C28</f>
-        <v>418.53483970188097</v>
-      </c>
-      <c r="E28" s="15">
-        <f>E17*$M$12</f>
-        <v>81.33058984910835</v>
-      </c>
-      <c r="F28" s="18">
-        <f>C28-E28</f>
-        <v>68.66941015089165</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="17">
-        <f>B28+E28</f>
-        <v>349.86542955098935</v>
-      </c>
-      <c r="I28" s="14">
-        <f>F28/H28</f>
-        <v>0.1962737794329113</v>
-      </c>
-      <c r="J28" s="14">
-        <f>H28*I31</f>
-        <v>111.43448268784891</v>
-      </c>
-      <c r="K28" s="14">
-        <f>J28-F28</f>
-        <v>42.765072536957263</v>
-      </c>
-      <c r="L28" s="14">
-        <f>B28+E28+J28</f>
-        <v>461.29991223883826</v>
-      </c>
-      <c r="M28" s="18">
-        <f>L28/D28</f>
-        <v>1.1021780470352684</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="17">
-        <f>B18*M17</f>
-        <v>119.34881764528043</v>
-      </c>
-      <c r="C29" s="10">
-        <f>C18</f>
-        <v>200</v>
-      </c>
-      <c r="D29" s="12">
-        <f t="shared" ref="D29:D30" si="20">B29+C29</f>
-        <v>319.34881764528041</v>
-      </c>
-      <c r="E29" s="15">
-        <f>E18*$M$12</f>
-        <v>108.4407864654778</v>
-      </c>
-      <c r="F29" s="18">
-        <f t="shared" ref="F29:F30" si="21">C29-E29</f>
-        <v>91.5592135345222</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="17">
-        <f t="shared" ref="H29:H30" si="22">B29+E29</f>
-        <v>227.78960411075823</v>
-      </c>
-      <c r="I29" s="14">
-        <f>F29/H29</f>
-        <v>0.40194640967900941</v>
-      </c>
-      <c r="J29" s="14">
-        <f>H29*I31</f>
-        <v>72.552514629207863</v>
-      </c>
-      <c r="K29" s="14">
-        <f t="shared" ref="K29:K30" si="23">J29-F29</f>
-        <v>-19.006698905314337</v>
-      </c>
-      <c r="L29" s="14">
-        <f t="shared" ref="L29:L30" si="24">B29+E29+J29</f>
-        <v>300.34211873996611</v>
-      </c>
-      <c r="M29" s="18">
-        <f t="shared" ref="M29:M30" si="25">L29/D29</f>
-        <v>0.9404829520100928</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="17">
-        <f>B19*M17</f>
-        <v>59.674408822640217</v>
-      </c>
-      <c r="C30" s="10">
-        <f>C19</f>
-        <v>150</v>
-      </c>
-      <c r="D30" s="13">
-        <f t="shared" si="20"/>
-        <v>209.6744088226402</v>
-      </c>
-      <c r="E30" s="15">
-        <f>E19*$M$12</f>
-        <v>81.33058984910835</v>
-      </c>
-      <c r="F30" s="18">
-        <f t="shared" si="21"/>
-        <v>68.66941015089165</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="17">
-        <f t="shared" si="22"/>
-        <v>141.00499867174858</v>
-      </c>
-      <c r="I30" s="14">
-        <f>F30/H30</f>
-        <v>0.48699982835892247</v>
-      </c>
-      <c r="J30" s="14">
-        <f>H30*I31</f>
-        <v>44.911036519248732</v>
-      </c>
-      <c r="K30" s="14">
-        <f t="shared" si="23"/>
-        <v>-23.758373631642918</v>
-      </c>
-      <c r="L30" s="14">
-        <f t="shared" si="24"/>
-        <v>185.91603519099732</v>
-      </c>
-      <c r="M30" s="18">
-        <f t="shared" si="25"/>
-        <v>0.88668920654146366</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B31" s="36">
-        <f>SUM(B28:B30)</f>
-        <v>447.55806616980158</v>
-      </c>
-      <c r="C31" s="45">
-        <f t="shared" ref="C31" si="26">SUM(C28:C30)</f>
-        <v>500</v>
-      </c>
-      <c r="D31" s="45">
-        <f t="shared" ref="D31" si="27">SUM(D28:D30)</f>
-        <v>947.55806616980158</v>
-      </c>
-      <c r="E31" s="38">
-        <f t="shared" ref="E31" si="28">SUM(E28:E30)</f>
-        <v>271.1019661636945</v>
-      </c>
-      <c r="F31" s="39">
-        <f t="shared" ref="F31" si="29">SUM(F28:F30)</f>
-        <v>228.8980338363055</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="46">
-        <f t="shared" ref="H31" si="30">SUM(H28:H30)</f>
-        <v>718.66003233349613</v>
-      </c>
-      <c r="I31" s="45">
-        <f>F31/H31</f>
-        <v>0.31850669793486547</v>
-      </c>
-      <c r="J31" s="45">
-        <f t="shared" ref="J31" si="31">SUM(J28:J30)</f>
-        <v>228.8980338363055</v>
-      </c>
-      <c r="K31" s="45">
-        <f t="shared" ref="K31" si="32">SUM(K28:K30)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="45">
-        <f t="shared" ref="L31" si="33">SUM(L28:L30)</f>
-        <v>947.55806616980158</v>
-      </c>
-      <c r="M31" s="47"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="H35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="I20 I14 I31" formula="1"/>
-  </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>